--- a/data/raw/City_door_open/Doors_Open_2018.xlsx
+++ b/data/raw/City_door_open/Doors_Open_2018.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="991">
   <si>
     <t>Building Name</t>
   </si>
@@ -1804,9 +1804,6 @@
   </si>
   <si>
     <t>M4M 3B9</t>
-  </si>
-  <si>
-    <t>--</t>
   </si>
   <si>
     <t>http://www.portlandsenergycentre.com</t>
@@ -3786,11 +3783,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="H126" sqref="H126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -4784,9 +4784,6 @@
       <c r="G33">
         <v>-79.40587549</v>
       </c>
-      <c r="H33">
-        <v>-5044</v>
-      </c>
       <c r="J33" t="s">
         <v>238</v>
       </c>
@@ -6284,25 +6281,22 @@
       <c r="G81">
         <v>-79.330275580000006</v>
       </c>
-      <c r="H81" t="s">
+      <c r="J81" t="s">
         <v>595</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>596</v>
-      </c>
-      <c r="K81" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>597</v>
+      </c>
+      <c r="B82" t="s">
         <v>598</v>
       </c>
-      <c r="B82" t="s">
+      <c r="D82" t="s">
         <v>599</v>
-      </c>
-      <c r="D82" t="s">
-        <v>600</v>
       </c>
       <c r="F82">
         <v>43.650295049999997</v>
@@ -6311,33 +6305,33 @@
         <v>-79.359265350000001</v>
       </c>
       <c r="H82" t="s">
+        <v>600</v>
+      </c>
+      <c r="J82" t="s">
         <v>601</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>602</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
         <v>603</v>
       </c>
-      <c r="L82" t="s">
+      <c r="M82" t="s">
         <v>604</v>
-      </c>
-      <c r="M82" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>605</v>
+      </c>
+      <c r="B83" t="s">
         <v>606</v>
-      </c>
-      <c r="B83" t="s">
-        <v>607</v>
       </c>
       <c r="C83">
         <v>405</v>
       </c>
       <c r="D83" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F83">
         <v>43.647225640000002</v>
@@ -6346,30 +6340,30 @@
         <v>-79.392305239999999</v>
       </c>
       <c r="H83" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I83">
         <v>244</v>
       </c>
       <c r="J83" t="s">
+        <v>609</v>
+      </c>
+      <c r="K83" t="s">
         <v>610</v>
       </c>
-      <c r="K83" t="s">
+      <c r="M83" t="s">
         <v>611</v>
-      </c>
-      <c r="M83" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>612</v>
+      </c>
+      <c r="B84" t="s">
         <v>613</v>
       </c>
-      <c r="B84" t="s">
+      <c r="D84" t="s">
         <v>614</v>
-      </c>
-      <c r="D84" t="s">
-        <v>615</v>
       </c>
       <c r="F84">
         <v>43.70301516</v>
@@ -6378,21 +6372,21 @@
         <v>-79.387573709999998</v>
       </c>
       <c r="H84" t="s">
+        <v>615</v>
+      </c>
+      <c r="J84" t="s">
         <v>616</v>
-      </c>
-      <c r="J84" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>617</v>
+      </c>
+      <c r="B85" t="s">
         <v>618</v>
       </c>
-      <c r="B85" t="s">
+      <c r="D85" t="s">
         <v>619</v>
-      </c>
-      <c r="D85" t="s">
-        <v>620</v>
       </c>
       <c r="F85">
         <v>43.657670969999998</v>
@@ -6401,30 +6395,30 @@
         <v>-79.379265520000004</v>
       </c>
       <c r="H85" t="s">
+        <v>620</v>
+      </c>
+      <c r="J85" t="s">
         <v>621</v>
       </c>
-      <c r="J85" t="s">
+      <c r="K85" t="s">
         <v>622</v>
       </c>
-      <c r="K85" t="s">
+      <c r="L85" t="s">
         <v>623</v>
       </c>
-      <c r="L85" t="s">
+      <c r="M85" t="s">
         <v>624</v>
-      </c>
-      <c r="M85" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>625</v>
+      </c>
+      <c r="B86" t="s">
         <v>626</v>
       </c>
-      <c r="B86" t="s">
+      <c r="D86" t="s">
         <v>627</v>
-      </c>
-      <c r="D86" t="s">
-        <v>628</v>
       </c>
       <c r="F86">
         <v>43.657386700000004</v>
@@ -6433,36 +6427,36 @@
         <v>-79.379142020000003</v>
       </c>
       <c r="H86" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I86">
         <v>5167</v>
       </c>
       <c r="J86" t="s">
+        <v>629</v>
+      </c>
+      <c r="K86" t="s">
         <v>630</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>631</v>
       </c>
-      <c r="L86" t="s">
+      <c r="M86" t="s">
         <v>632</v>
       </c>
-      <c r="M86" t="s">
+      <c r="N86" t="s">
         <v>633</v>
-      </c>
-      <c r="N86" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>634</v>
+      </c>
+      <c r="B87" t="s">
         <v>635</v>
       </c>
-      <c r="B87" t="s">
+      <c r="D87" t="s">
         <v>636</v>
-      </c>
-      <c r="D87" t="s">
-        <v>637</v>
       </c>
       <c r="F87">
         <v>43.674385200000003</v>
@@ -6488,13 +6482,13 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>637</v>
+      </c>
+      <c r="B88" t="s">
         <v>638</v>
       </c>
-      <c r="B88" t="s">
+      <c r="D88" t="s">
         <v>639</v>
-      </c>
-      <c r="D88" t="s">
-        <v>640</v>
       </c>
       <c r="F88">
         <v>43.630707999999998</v>
@@ -6503,27 +6497,27 @@
         <v>-79.423991999999998</v>
       </c>
       <c r="J88" t="s">
+        <v>640</v>
+      </c>
+      <c r="K88" t="s">
         <v>641</v>
       </c>
-      <c r="K88" t="s">
+      <c r="L88" t="s">
         <v>642</v>
       </c>
-      <c r="L88" t="s">
+      <c r="M88" t="s">
         <v>643</v>
-      </c>
-      <c r="M88" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>644</v>
+      </c>
+      <c r="B89" t="s">
         <v>645</v>
       </c>
-      <c r="B89" t="s">
+      <c r="D89" t="s">
         <v>646</v>
-      </c>
-      <c r="D89" t="s">
-        <v>647</v>
       </c>
       <c r="F89">
         <v>43.695394659999998</v>
@@ -6532,33 +6526,33 @@
         <v>-79.258785459999999</v>
       </c>
       <c r="H89" t="s">
+        <v>647</v>
+      </c>
+      <c r="J89" t="s">
         <v>648</v>
       </c>
-      <c r="J89" t="s">
+      <c r="K89" t="s">
         <v>649</v>
       </c>
-      <c r="K89" t="s">
+      <c r="L89" t="s">
         <v>650</v>
       </c>
-      <c r="L89" t="s">
+      <c r="M89" t="s">
         <v>651</v>
-      </c>
-      <c r="M89" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>652</v>
+      </c>
+      <c r="B90" t="s">
         <v>653</v>
       </c>
-      <c r="B90" t="s">
+      <c r="D90" t="s">
         <v>654</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>655</v>
-      </c>
-      <c r="E90" t="s">
-        <v>656</v>
       </c>
       <c r="F90">
         <v>43.758044499999997</v>
@@ -6567,27 +6561,27 @@
         <v>-79.256434330000005</v>
       </c>
       <c r="H90" t="s">
+        <v>656</v>
+      </c>
+      <c r="J90" t="s">
         <v>657</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>658</v>
       </c>
-      <c r="K90" t="s">
+      <c r="L90" t="s">
         <v>659</v>
-      </c>
-      <c r="L90" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>660</v>
+      </c>
+      <c r="B91" t="s">
         <v>661</v>
       </c>
-      <c r="B91" t="s">
+      <c r="D91" t="s">
         <v>662</v>
-      </c>
-      <c r="D91" t="s">
-        <v>663</v>
       </c>
       <c r="F91">
         <v>43.771283490000002</v>
@@ -6596,33 +6590,33 @@
         <v>-79.498857560000005</v>
       </c>
       <c r="H91" t="s">
+        <v>663</v>
+      </c>
+      <c r="J91" t="s">
         <v>664</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>665</v>
       </c>
-      <c r="K91" t="s">
+      <c r="L91" t="s">
         <v>666</v>
       </c>
-      <c r="L91" t="s">
+      <c r="M91" t="s">
         <v>667</v>
       </c>
-      <c r="M91" t="s">
+      <c r="N91" t="s">
         <v>668</v>
-      </c>
-      <c r="N91" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>669</v>
+      </c>
+      <c r="B92" t="s">
         <v>670</v>
       </c>
-      <c r="B92" t="s">
+      <c r="D92" t="s">
         <v>671</v>
-      </c>
-      <c r="D92" t="s">
-        <v>672</v>
       </c>
       <c r="F92">
         <v>43.654711419999998</v>
@@ -6631,27 +6625,27 @@
         <v>-79.340394610000004</v>
       </c>
       <c r="H92" t="s">
+        <v>672</v>
+      </c>
+      <c r="J92" t="s">
         <v>673</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K92" t="s">
         <v>674</v>
       </c>
-      <c r="K92" t="s">
+      <c r="L92" t="s">
         <v>675</v>
-      </c>
-      <c r="L92" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>676</v>
+      </c>
+      <c r="B93" t="s">
         <v>677</v>
       </c>
-      <c r="B93" t="s">
+      <c r="D93" t="s">
         <v>678</v>
-      </c>
-      <c r="D93" t="s">
-        <v>679</v>
       </c>
       <c r="F93">
         <v>43.64690014</v>
@@ -6660,30 +6654,30 @@
         <v>-79.349443800000003</v>
       </c>
       <c r="H93" t="s">
+        <v>679</v>
+      </c>
+      <c r="J93" t="s">
         <v>680</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K93" t="s">
         <v>681</v>
       </c>
-      <c r="K93" t="s">
+      <c r="L93" t="s">
         <v>682</v>
-      </c>
-      <c r="L93" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>683</v>
+      </c>
+      <c r="B94" t="s">
         <v>684</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>685</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>686</v>
-      </c>
-      <c r="D94" t="s">
-        <v>687</v>
       </c>
       <c r="F94">
         <v>43.651944659999998</v>
@@ -6692,24 +6686,24 @@
         <v>-79.366448599999998</v>
       </c>
       <c r="J94" t="s">
+        <v>680</v>
+      </c>
+      <c r="K94" t="s">
         <v>681</v>
       </c>
-      <c r="K94" t="s">
+      <c r="L94" t="s">
         <v>682</v>
-      </c>
-      <c r="L94" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>687</v>
+      </c>
+      <c r="B95" t="s">
         <v>688</v>
       </c>
-      <c r="B95" t="s">
+      <c r="D95" t="s">
         <v>689</v>
-      </c>
-      <c r="D95" t="s">
-        <v>690</v>
       </c>
       <c r="F95">
         <v>43.679028039999999</v>
@@ -6718,36 +6712,36 @@
         <v>-79.408327630000002</v>
       </c>
       <c r="H95" t="s">
+        <v>690</v>
+      </c>
+      <c r="J95" t="s">
         <v>691</v>
       </c>
-      <c r="J95" t="s">
+      <c r="K95" t="s">
         <v>692</v>
       </c>
-      <c r="K95" t="s">
+      <c r="L95" t="s">
         <v>693</v>
       </c>
-      <c r="L95" t="s">
+      <c r="M95" t="s">
         <v>694</v>
       </c>
-      <c r="M95" t="s">
+      <c r="N95" t="s">
         <v>695</v>
       </c>
-      <c r="N95" t="s">
+      <c r="O95" t="s">
         <v>696</v>
-      </c>
-      <c r="O95" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>697</v>
+      </c>
+      <c r="B96" t="s">
         <v>698</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>699</v>
-      </c>
-      <c r="C96" t="s">
-        <v>700</v>
       </c>
       <c r="D96" t="s">
         <v>218</v>
@@ -6759,30 +6753,30 @@
         <v>-79.411250019999997</v>
       </c>
       <c r="H96" t="s">
+        <v>700</v>
+      </c>
+      <c r="J96" t="s">
         <v>701</v>
       </c>
-      <c r="J96" t="s">
+      <c r="K96" t="s">
         <v>702</v>
       </c>
-      <c r="K96" t="s">
+      <c r="L96" t="s">
         <v>703</v>
       </c>
-      <c r="L96" t="s">
+      <c r="M96" t="s">
         <v>704</v>
-      </c>
-      <c r="M96" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>705</v>
+      </c>
+      <c r="B97" t="s">
         <v>706</v>
       </c>
-      <c r="B97" t="s">
+      <c r="D97" t="s">
         <v>707</v>
-      </c>
-      <c r="D97" t="s">
-        <v>708</v>
       </c>
       <c r="F97">
         <v>43.65027491</v>
@@ -6791,24 +6785,24 @@
         <v>-79.374353200000002</v>
       </c>
       <c r="H97" t="s">
+        <v>708</v>
+      </c>
+      <c r="J97" t="s">
         <v>709</v>
       </c>
-      <c r="J97" t="s">
+      <c r="L97" t="s">
         <v>710</v>
-      </c>
-      <c r="L97" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>711</v>
+      </c>
+      <c r="B98" t="s">
         <v>712</v>
       </c>
-      <c r="B98" t="s">
+      <c r="D98" t="s">
         <v>713</v>
-      </c>
-      <c r="D98" t="s">
-        <v>714</v>
       </c>
       <c r="F98">
         <v>43.788951390000001</v>
@@ -6817,39 +6811,39 @@
         <v>-79.405819190000003</v>
       </c>
       <c r="H98" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I98">
         <v>301</v>
       </c>
       <c r="J98" t="s">
+        <v>715</v>
+      </c>
+      <c r="K98" t="s">
         <v>716</v>
       </c>
-      <c r="K98" t="s">
+      <c r="L98" t="s">
         <v>717</v>
       </c>
-      <c r="L98" t="s">
+      <c r="N98" t="s">
         <v>718</v>
       </c>
-      <c r="N98" t="s">
+      <c r="O98" t="s">
         <v>719</v>
-      </c>
-      <c r="O98" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>720</v>
+      </c>
+      <c r="B99" t="s">
         <v>721</v>
-      </c>
-      <c r="B99" t="s">
-        <v>722</v>
       </c>
       <c r="C99">
         <v>4</v>
       </c>
       <c r="D99" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F99">
         <v>43.65169874</v>
@@ -6858,30 +6852,30 @@
         <v>-79.373553470000004</v>
       </c>
       <c r="H99" t="s">
+        <v>723</v>
+      </c>
+      <c r="J99" t="s">
         <v>724</v>
       </c>
-      <c r="J99" t="s">
+      <c r="K99" t="s">
         <v>725</v>
-      </c>
-      <c r="K99" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>726</v>
+      </c>
+      <c r="B100" t="s">
         <v>727</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>728</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>729</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>730</v>
-      </c>
-      <c r="E100" t="s">
-        <v>731</v>
       </c>
       <c r="F100">
         <v>43.655520580000001</v>
@@ -6890,27 +6884,27 @@
         <v>-79.416596850000005</v>
       </c>
       <c r="H100" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I100">
         <v>33</v>
       </c>
       <c r="J100" t="s">
+        <v>732</v>
+      </c>
+      <c r="K100" t="s">
         <v>733</v>
-      </c>
-      <c r="K100" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>734</v>
+      </c>
+      <c r="B101" t="s">
         <v>735</v>
       </c>
-      <c r="B101" t="s">
+      <c r="D101" t="s">
         <v>736</v>
-      </c>
-      <c r="D101" t="s">
-        <v>737</v>
       </c>
       <c r="F101">
         <v>43.669552809999999</v>
@@ -6919,33 +6913,33 @@
         <v>-79.410657119999996</v>
       </c>
       <c r="H101" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I101">
         <v>235</v>
       </c>
       <c r="J101" t="s">
+        <v>738</v>
+      </c>
+      <c r="L101" t="s">
         <v>739</v>
       </c>
-      <c r="L101" t="s">
+      <c r="M101" t="s">
         <v>740</v>
-      </c>
-      <c r="M101" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>741</v>
+      </c>
+      <c r="B102" t="s">
         <v>742</v>
       </c>
-      <c r="B102" t="s">
+      <c r="D102" t="s">
         <v>743</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>744</v>
-      </c>
-      <c r="E102" t="s">
-        <v>745</v>
       </c>
       <c r="F102">
         <v>43.661679720000002</v>
@@ -6954,30 +6948,30 @@
         <v>-79.368559500000003</v>
       </c>
       <c r="H102" t="s">
+        <v>745</v>
+      </c>
+      <c r="J102" t="s">
         <v>746</v>
       </c>
-      <c r="J102" t="s">
+      <c r="K102" t="s">
         <v>747</v>
       </c>
-      <c r="K102" t="s">
+      <c r="L102" t="s">
         <v>748</v>
       </c>
-      <c r="L102" t="s">
+      <c r="M102" t="s">
         <v>749</v>
-      </c>
-      <c r="M102" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>750</v>
+      </c>
+      <c r="B103" t="s">
         <v>751</v>
       </c>
-      <c r="B103" t="s">
+      <c r="D103" t="s">
         <v>752</v>
-      </c>
-      <c r="D103" t="s">
-        <v>753</v>
       </c>
       <c r="F103">
         <v>43.673079610000002</v>
@@ -6986,24 +6980,24 @@
         <v>-79.388418270000003</v>
       </c>
       <c r="J103" t="s">
+        <v>753</v>
+      </c>
+      <c r="K103" t="s">
         <v>754</v>
       </c>
-      <c r="K103" t="s">
+      <c r="M103" t="s">
         <v>755</v>
-      </c>
-      <c r="M103" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>756</v>
+      </c>
+      <c r="B104" t="s">
         <v>757</v>
       </c>
-      <c r="B104" t="s">
+      <c r="D104" t="s">
         <v>758</v>
-      </c>
-      <c r="D104" t="s">
-        <v>759</v>
       </c>
       <c r="F104">
         <v>43.649108390000002</v>
@@ -7012,27 +7006,27 @@
         <v>-79.395879949999994</v>
       </c>
       <c r="H104" t="s">
+        <v>759</v>
+      </c>
+      <c r="J104" t="s">
         <v>760</v>
       </c>
-      <c r="J104" t="s">
+      <c r="L104" t="s">
         <v>761</v>
-      </c>
-      <c r="L104" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>762</v>
+      </c>
+      <c r="B105" t="s">
         <v>763</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>764</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>765</v>
-      </c>
-      <c r="D105" t="s">
-        <v>766</v>
       </c>
       <c r="F105">
         <v>43.670727839999998</v>
@@ -7041,30 +7035,30 @@
         <v>-79.385554720000002</v>
       </c>
       <c r="H105" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="I105">
         <v>223</v>
       </c>
       <c r="J105" t="s">
+        <v>767</v>
+      </c>
+      <c r="K105" t="s">
         <v>768</v>
       </c>
-      <c r="K105" t="s">
+      <c r="L105" t="s">
         <v>769</v>
-      </c>
-      <c r="L105" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>770</v>
+      </c>
+      <c r="B106" t="s">
         <v>771</v>
       </c>
-      <c r="B106" t="s">
+      <c r="D106" t="s">
         <v>772</v>
-      </c>
-      <c r="D106" t="s">
-        <v>773</v>
       </c>
       <c r="F106">
         <v>43.65572607</v>
@@ -7073,27 +7067,27 @@
         <v>-79.391215939999995</v>
       </c>
       <c r="J106" t="s">
+        <v>773</v>
+      </c>
+      <c r="K106" t="s">
         <v>774</v>
       </c>
-      <c r="K106" t="s">
+      <c r="L106" t="s">
         <v>775</v>
       </c>
-      <c r="L106" t="s">
+      <c r="N106" t="s">
         <v>776</v>
-      </c>
-      <c r="N106" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>777</v>
+      </c>
+      <c r="B107" t="s">
         <v>778</v>
       </c>
-      <c r="B107" t="s">
+      <c r="D107" t="s">
         <v>779</v>
-      </c>
-      <c r="D107" t="s">
-        <v>780</v>
       </c>
       <c r="F107">
         <v>43.671380540000001</v>
@@ -7102,27 +7096,27 @@
         <v>-79.327237429999997</v>
       </c>
       <c r="J107" t="s">
+        <v>780</v>
+      </c>
+      <c r="K107" t="s">
         <v>781</v>
       </c>
-      <c r="K107" t="s">
+      <c r="L107" t="s">
         <v>782</v>
       </c>
-      <c r="L107" t="s">
+      <c r="M107" t="s">
         <v>783</v>
-      </c>
-      <c r="M107" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>784</v>
+      </c>
+      <c r="B108" t="s">
         <v>785</v>
       </c>
-      <c r="B108" t="s">
+      <c r="D108" t="s">
         <v>786</v>
-      </c>
-      <c r="D108" t="s">
-        <v>787</v>
       </c>
       <c r="F108">
         <v>43.651052829999998</v>
@@ -7131,30 +7125,30 @@
         <v>-79.451243430000005</v>
       </c>
       <c r="H108" t="s">
+        <v>787</v>
+      </c>
+      <c r="J108" t="s">
         <v>788</v>
       </c>
-      <c r="J108" t="s">
+      <c r="K108" t="s">
         <v>789</v>
       </c>
-      <c r="K108" t="s">
+      <c r="L108" t="s">
         <v>790</v>
       </c>
-      <c r="L108" t="s">
+      <c r="M108" t="s">
         <v>791</v>
-      </c>
-      <c r="M108" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>792</v>
+      </c>
+      <c r="B109" t="s">
         <v>793</v>
       </c>
-      <c r="B109" t="s">
+      <c r="D109" t="s">
         <v>794</v>
-      </c>
-      <c r="D109" t="s">
-        <v>795</v>
       </c>
       <c r="F109">
         <v>43.667856299999997</v>
@@ -7163,33 +7157,33 @@
         <v>-79.39605881</v>
       </c>
       <c r="H109" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I109">
         <v>255</v>
       </c>
       <c r="J109" t="s">
+        <v>796</v>
+      </c>
+      <c r="K109" t="s">
         <v>797</v>
       </c>
-      <c r="K109" t="s">
+      <c r="L109" t="s">
         <v>798</v>
       </c>
-      <c r="L109" t="s">
+      <c r="M109" t="s">
         <v>799</v>
-      </c>
-      <c r="M109" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>800</v>
+      </c>
+      <c r="B110" t="s">
         <v>801</v>
       </c>
-      <c r="B110" t="s">
+      <c r="D110" t="s">
         <v>802</v>
-      </c>
-      <c r="D110" t="s">
-        <v>803</v>
       </c>
       <c r="F110">
         <v>43.658014399999999</v>
@@ -7198,24 +7192,24 @@
         <v>-79.382541959999998</v>
       </c>
       <c r="H110" t="s">
+        <v>803</v>
+      </c>
+      <c r="J110" t="s">
         <v>804</v>
       </c>
-      <c r="J110" t="s">
+      <c r="L110" t="s">
         <v>805</v>
-      </c>
-      <c r="L110" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>806</v>
+      </c>
+      <c r="B111" t="s">
         <v>807</v>
       </c>
-      <c r="B111" t="s">
+      <c r="D111" t="s">
         <v>808</v>
-      </c>
-      <c r="D111" t="s">
-        <v>809</v>
       </c>
       <c r="F111">
         <v>43.646654609999999</v>
@@ -7224,33 +7218,33 @@
         <v>-79.390454120000001</v>
       </c>
       <c r="H111" t="s">
+        <v>809</v>
+      </c>
+      <c r="J111" t="s">
         <v>810</v>
       </c>
-      <c r="J111" t="s">
+      <c r="K111" t="s">
         <v>811</v>
       </c>
-      <c r="K111" t="s">
+      <c r="L111" t="s">
         <v>812</v>
       </c>
-      <c r="L111" t="s">
+      <c r="M111" t="s">
         <v>813</v>
       </c>
-      <c r="M111" t="s">
+      <c r="N111" t="s">
         <v>814</v>
-      </c>
-      <c r="N111" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>815</v>
+      </c>
+      <c r="B112" t="s">
         <v>816</v>
       </c>
-      <c r="B112" t="s">
+      <c r="D112" t="s">
         <v>817</v>
-      </c>
-      <c r="D112" t="s">
-        <v>818</v>
       </c>
       <c r="F112">
         <v>43.686361230000003</v>
@@ -7259,59 +7253,59 @@
         <v>-79.360334010000003</v>
       </c>
       <c r="H112" t="s">
+        <v>818</v>
+      </c>
+      <c r="J112" t="s">
         <v>819</v>
       </c>
-      <c r="J112" t="s">
+      <c r="K112" t="s">
         <v>820</v>
       </c>
-      <c r="K112" t="s">
+      <c r="L112" t="s">
         <v>821</v>
       </c>
-      <c r="L112" t="s">
-        <v>822</v>
-      </c>
       <c r="N112" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>822</v>
+      </c>
+      <c r="B113" t="s">
         <v>823</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>824</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>825</v>
       </c>
-      <c r="D113" t="s">
+      <c r="H113" t="s">
         <v>826</v>
       </c>
-      <c r="H113" t="s">
+      <c r="J113" t="s">
         <v>827</v>
       </c>
-      <c r="J113" t="s">
+      <c r="K113" t="s">
+        <v>733</v>
+      </c>
+      <c r="L113" t="s">
         <v>828</v>
       </c>
-      <c r="K113" t="s">
-        <v>734</v>
-      </c>
-      <c r="L113" t="s">
+      <c r="M113" t="s">
         <v>829</v>
-      </c>
-      <c r="M113" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>830</v>
+      </c>
+      <c r="B114" t="s">
         <v>831</v>
       </c>
-      <c r="B114" t="s">
+      <c r="D114" t="s">
         <v>832</v>
-      </c>
-      <c r="D114" t="s">
-        <v>833</v>
       </c>
       <c r="F114">
         <v>43.766288510000003</v>
@@ -7320,24 +7314,24 @@
         <v>-79.414024339999997</v>
       </c>
       <c r="H114" t="s">
+        <v>833</v>
+      </c>
+      <c r="J114" t="s">
         <v>834</v>
       </c>
-      <c r="J114" t="s">
+      <c r="K114" t="s">
         <v>835</v>
       </c>
-      <c r="K114" t="s">
+      <c r="L114" t="s">
         <v>836</v>
-      </c>
-      <c r="L114" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>837</v>
+      </c>
+      <c r="B115" t="s">
         <v>838</v>
-      </c>
-      <c r="B115" t="s">
-        <v>839</v>
       </c>
       <c r="D115" t="s">
         <v>554</v>
@@ -7349,7 +7343,7 @@
         <v>-79.38362506</v>
       </c>
       <c r="J115" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K115" t="s">
         <v>291</v>
@@ -7358,18 +7352,18 @@
         <v>292</v>
       </c>
       <c r="M115" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>841</v>
+      </c>
+      <c r="B116" t="s">
         <v>842</v>
       </c>
-      <c r="B116" t="s">
+      <c r="D116" t="s">
         <v>843</v>
-      </c>
-      <c r="D116" t="s">
-        <v>844</v>
       </c>
       <c r="F116">
         <v>43.669171589999998</v>
@@ -7378,30 +7372,30 @@
         <v>-79.305041410000001</v>
       </c>
       <c r="J116" t="s">
+        <v>844</v>
+      </c>
+      <c r="K116" t="s">
         <v>845</v>
       </c>
-      <c r="K116" t="s">
+      <c r="L116" t="s">
         <v>846</v>
       </c>
-      <c r="L116" t="s">
+      <c r="M116" t="s">
         <v>847</v>
       </c>
-      <c r="M116" t="s">
+      <c r="N116" t="s">
         <v>848</v>
-      </c>
-      <c r="N116" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>849</v>
+      </c>
+      <c r="B117" t="s">
         <v>850</v>
       </c>
-      <c r="B117" t="s">
+      <c r="D117" t="s">
         <v>851</v>
-      </c>
-      <c r="D117" t="s">
-        <v>852</v>
       </c>
       <c r="F117">
         <v>43.637690310000004</v>
@@ -7410,30 +7404,30 @@
         <v>-79.388613019999994</v>
       </c>
       <c r="J117" t="s">
+        <v>844</v>
+      </c>
+      <c r="K117" t="s">
         <v>845</v>
       </c>
-      <c r="K117" t="s">
+      <c r="L117" t="s">
         <v>846</v>
       </c>
-      <c r="L117" t="s">
+      <c r="M117" t="s">
         <v>847</v>
       </c>
-      <c r="M117" t="s">
+      <c r="N117" t="s">
         <v>848</v>
-      </c>
-      <c r="N117" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>852</v>
+      </c>
+      <c r="B118" t="s">
         <v>853</v>
       </c>
-      <c r="B118" t="s">
+      <c r="D118" t="s">
         <v>854</v>
-      </c>
-      <c r="D118" t="s">
-        <v>855</v>
       </c>
       <c r="F118">
         <v>43.790896709999998</v>
@@ -7442,24 +7436,24 @@
         <v>-79.194279989999998</v>
       </c>
       <c r="J118" t="s">
+        <v>855</v>
+      </c>
+      <c r="K118" t="s">
         <v>856</v>
       </c>
-      <c r="K118" t="s">
+      <c r="M118" t="s">
         <v>857</v>
-      </c>
-      <c r="M118" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>858</v>
+      </c>
+      <c r="B119" t="s">
         <v>859</v>
       </c>
-      <c r="B119" t="s">
+      <c r="D119" t="s">
         <v>860</v>
-      </c>
-      <c r="D119" t="s">
-        <v>861</v>
       </c>
       <c r="F119">
         <v>43.671887519999999</v>
@@ -7468,33 +7462,33 @@
         <v>-79.386673209999998</v>
       </c>
       <c r="H119" t="s">
+        <v>861</v>
+      </c>
+      <c r="J119" t="s">
         <v>862</v>
       </c>
-      <c r="J119" t="s">
+      <c r="K119" t="s">
         <v>863</v>
       </c>
-      <c r="K119" t="s">
+      <c r="L119" t="s">
         <v>864</v>
       </c>
-      <c r="L119" t="s">
+      <c r="M119" t="s">
         <v>865</v>
       </c>
-      <c r="M119" t="s">
+      <c r="N119" t="s">
         <v>866</v>
-      </c>
-      <c r="N119" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>867</v>
+      </c>
+      <c r="B120" t="s">
         <v>868</v>
       </c>
-      <c r="B120" t="s">
+      <c r="D120" t="s">
         <v>869</v>
-      </c>
-      <c r="D120" t="s">
-        <v>870</v>
       </c>
       <c r="F120">
         <v>43.670343889999998</v>
@@ -7503,33 +7497,33 @@
         <v>-79.390137109999998</v>
       </c>
       <c r="J120" t="s">
+        <v>870</v>
+      </c>
+      <c r="K120" t="s">
         <v>871</v>
       </c>
-      <c r="K120" t="s">
+      <c r="L120" t="s">
         <v>872</v>
       </c>
-      <c r="L120" t="s">
+      <c r="M120" t="s">
         <v>873</v>
       </c>
-      <c r="M120" t="s">
+      <c r="N120" t="s">
         <v>874</v>
-      </c>
-      <c r="N120" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>875</v>
+      </c>
+      <c r="B121" t="s">
         <v>876</v>
       </c>
-      <c r="B121" t="s">
+      <c r="D121" t="s">
         <v>877</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>878</v>
-      </c>
-      <c r="E121" t="s">
-        <v>879</v>
       </c>
       <c r="F121">
         <v>43.662513429999997</v>
@@ -7538,33 +7532,33 @@
         <v>-79.446534940000006</v>
       </c>
       <c r="H121" t="s">
+        <v>879</v>
+      </c>
+      <c r="J121" t="s">
         <v>880</v>
       </c>
-      <c r="J121" t="s">
+      <c r="K121" t="s">
         <v>881</v>
       </c>
-      <c r="K121" t="s">
+      <c r="L121" t="s">
         <v>882</v>
       </c>
-      <c r="L121" t="s">
+      <c r="M121" t="s">
         <v>883</v>
       </c>
-      <c r="M121" t="s">
+      <c r="N121" t="s">
         <v>884</v>
-      </c>
-      <c r="N121" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>885</v>
+      </c>
+      <c r="B122" t="s">
         <v>886</v>
       </c>
-      <c r="B122" t="s">
+      <c r="D122" t="s">
         <v>887</v>
-      </c>
-      <c r="D122" t="s">
-        <v>888</v>
       </c>
       <c r="F122">
         <v>43.645528239999997</v>
@@ -7573,27 +7567,27 @@
         <v>-79.380348380000001</v>
       </c>
       <c r="J122" t="s">
+        <v>888</v>
+      </c>
+      <c r="K122" t="s">
         <v>889</v>
       </c>
-      <c r="K122" t="s">
+      <c r="L122" t="s">
         <v>890</v>
       </c>
-      <c r="L122" t="s">
+      <c r="M122" t="s">
         <v>891</v>
-      </c>
-      <c r="M122" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>892</v>
+      </c>
+      <c r="B123" t="s">
         <v>893</v>
       </c>
-      <c r="B123" t="s">
+      <c r="D123" t="s">
         <v>894</v>
-      </c>
-      <c r="D123" t="s">
-        <v>895</v>
       </c>
       <c r="F123">
         <v>43.659680940000001</v>
@@ -7602,36 +7596,36 @@
         <v>-79.400700430000001</v>
       </c>
       <c r="H123" t="s">
+        <v>895</v>
+      </c>
+      <c r="J123" t="s">
         <v>896</v>
       </c>
-      <c r="J123" t="s">
+      <c r="K123" t="s">
         <v>897</v>
       </c>
-      <c r="K123" t="s">
+      <c r="L123" t="s">
         <v>898</v>
       </c>
-      <c r="L123" t="s">
+      <c r="M123" t="s">
         <v>899</v>
       </c>
-      <c r="M123" t="s">
+      <c r="N123" t="s">
         <v>900</v>
       </c>
-      <c r="N123" t="s">
+      <c r="O123" t="s">
         <v>901</v>
-      </c>
-      <c r="O123" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>902</v>
+      </c>
+      <c r="B124" t="s">
         <v>903</v>
       </c>
-      <c r="B124" t="s">
+      <c r="D124" t="s">
         <v>904</v>
-      </c>
-      <c r="D124" t="s">
-        <v>905</v>
       </c>
       <c r="F124">
         <v>43.666573</v>
@@ -7640,33 +7634,33 @@
         <v>-79.39461</v>
       </c>
       <c r="H124" t="s">
+        <v>905</v>
+      </c>
+      <c r="J124" t="s">
         <v>906</v>
       </c>
-      <c r="J124" t="s">
+      <c r="K124" t="s">
         <v>907</v>
       </c>
-      <c r="K124" t="s">
+      <c r="L124" t="s">
         <v>908</v>
       </c>
-      <c r="L124" t="s">
+      <c r="M124" t="s">
         <v>909</v>
-      </c>
-      <c r="M124" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>910</v>
+      </c>
+      <c r="B125" t="s">
         <v>911</v>
       </c>
-      <c r="B125" t="s">
+      <c r="D125" t="s">
+        <v>904</v>
+      </c>
+      <c r="E125" t="s">
         <v>912</v>
-      </c>
-      <c r="D125" t="s">
-        <v>905</v>
-      </c>
-      <c r="E125" t="s">
-        <v>913</v>
       </c>
       <c r="F125">
         <v>43.662891999999999</v>
@@ -7674,31 +7668,28 @@
       <c r="G125">
         <v>-79.395656000000002</v>
       </c>
-      <c r="H125" t="s">
-        <v>595</v>
-      </c>
       <c r="J125" t="s">
+        <v>913</v>
+      </c>
+      <c r="K125" t="s">
         <v>914</v>
       </c>
-      <c r="K125" t="s">
+      <c r="L125" t="s">
         <v>915</v>
       </c>
-      <c r="L125" t="s">
+      <c r="N125" t="s">
         <v>916</v>
-      </c>
-      <c r="N125" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>917</v>
+      </c>
+      <c r="B126" t="s">
         <v>918</v>
       </c>
-      <c r="B126" t="s">
+      <c r="D126" t="s">
         <v>919</v>
-      </c>
-      <c r="D126" t="s">
-        <v>920</v>
       </c>
       <c r="F126">
         <v>43.660974439999997</v>
@@ -7707,27 +7698,27 @@
         <v>-79.39825639</v>
       </c>
       <c r="H126" t="s">
+        <v>920</v>
+      </c>
+      <c r="J126" t="s">
         <v>921</v>
       </c>
-      <c r="J126" t="s">
+      <c r="K126" t="s">
         <v>922</v>
       </c>
-      <c r="K126" t="s">
+      <c r="L126" t="s">
         <v>923</v>
-      </c>
-      <c r="L126" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>924</v>
+      </c>
+      <c r="B127" t="s">
         <v>925</v>
       </c>
-      <c r="B127" t="s">
+      <c r="D127" t="s">
         <v>926</v>
-      </c>
-      <c r="D127" t="s">
-        <v>927</v>
       </c>
       <c r="F127">
         <v>43.666499549999997</v>
@@ -7736,33 +7727,33 @@
         <v>-79.389700669999996</v>
       </c>
       <c r="H127" t="s">
+        <v>927</v>
+      </c>
+      <c r="J127" t="s">
         <v>928</v>
       </c>
-      <c r="J127" t="s">
+      <c r="K127" t="s">
         <v>929</v>
       </c>
-      <c r="K127" t="s">
+      <c r="L127" t="s">
         <v>930</v>
       </c>
-      <c r="L127" t="s">
+      <c r="M127" t="s">
         <v>931</v>
       </c>
-      <c r="M127" t="s">
-        <v>932</v>
-      </c>
       <c r="O127" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>932</v>
+      </c>
+      <c r="B128" t="s">
         <v>933</v>
       </c>
-      <c r="B128" t="s">
+      <c r="D128" t="s">
         <v>934</v>
-      </c>
-      <c r="D128" t="s">
-        <v>935</v>
       </c>
       <c r="F128">
         <v>43.661156179999999</v>
@@ -7771,27 +7762,27 @@
         <v>-79.400511199999997</v>
       </c>
       <c r="H128" t="s">
+        <v>935</v>
+      </c>
+      <c r="J128" t="s">
         <v>936</v>
       </c>
-      <c r="J128" t="s">
+      <c r="K128" t="s">
         <v>937</v>
       </c>
-      <c r="K128" t="s">
+      <c r="L128" t="s">
         <v>938</v>
-      </c>
-      <c r="L128" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>939</v>
+      </c>
+      <c r="B129" t="s">
         <v>940</v>
       </c>
-      <c r="B129" t="s">
+      <c r="D129" t="s">
         <v>941</v>
-      </c>
-      <c r="D129" t="s">
-        <v>942</v>
       </c>
       <c r="F129">
         <v>43.664097740000003</v>
@@ -7800,36 +7791,36 @@
         <v>-79.398963780000003</v>
       </c>
       <c r="H129" t="s">
+        <v>942</v>
+      </c>
+      <c r="J129" t="s">
         <v>943</v>
       </c>
-      <c r="J129" t="s">
+      <c r="K129" t="s">
         <v>944</v>
       </c>
-      <c r="K129" t="s">
+      <c r="L129" t="s">
         <v>945</v>
       </c>
-      <c r="L129" t="s">
+      <c r="M129" t="s">
         <v>946</v>
       </c>
-      <c r="M129" t="s">
+      <c r="N129" t="s">
         <v>947</v>
       </c>
-      <c r="N129" t="s">
+      <c r="O129" t="s">
         <v>948</v>
-      </c>
-      <c r="O129" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>949</v>
+      </c>
+      <c r="B130" t="s">
         <v>950</v>
       </c>
-      <c r="B130" t="s">
+      <c r="D130" t="s">
         <v>951</v>
-      </c>
-      <c r="D130" t="s">
-        <v>952</v>
       </c>
       <c r="F130">
         <v>43.783886850000002</v>
@@ -7838,24 +7829,24 @@
         <v>-79.186289479999999</v>
       </c>
       <c r="J130" t="s">
+        <v>952</v>
+      </c>
+      <c r="K130" t="s">
         <v>953</v>
       </c>
-      <c r="K130" t="s">
+      <c r="L130" t="s">
         <v>954</v>
-      </c>
-      <c r="L130" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>955</v>
+      </c>
+      <c r="B131" t="s">
         <v>956</v>
       </c>
-      <c r="B131" t="s">
+      <c r="D131" t="s">
         <v>957</v>
-      </c>
-      <c r="D131" t="s">
-        <v>958</v>
       </c>
       <c r="F131">
         <v>43.689493179999999</v>
@@ -7864,30 +7855,30 @@
         <v>-79.494585939999993</v>
       </c>
       <c r="H131" t="s">
+        <v>958</v>
+      </c>
+      <c r="J131" t="s">
         <v>959</v>
       </c>
-      <c r="J131" t="s">
+      <c r="K131" t="s">
         <v>960</v>
       </c>
-      <c r="K131" t="s">
+      <c r="L131" t="s">
         <v>961</v>
       </c>
-      <c r="L131" t="s">
+      <c r="M131" t="s">
         <v>962</v>
-      </c>
-      <c r="M131" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>963</v>
+      </c>
+      <c r="B132" t="s">
         <v>964</v>
       </c>
-      <c r="B132" t="s">
+      <c r="D132" t="s">
         <v>965</v>
-      </c>
-      <c r="D132" t="s">
-        <v>966</v>
       </c>
       <c r="F132">
         <v>43.616941279999999</v>
@@ -7896,33 +7887,33 @@
         <v>-79.511082930000001</v>
       </c>
       <c r="H132" t="s">
+        <v>966</v>
+      </c>
+      <c r="J132" t="s">
         <v>967</v>
       </c>
-      <c r="J132" t="s">
+      <c r="K132" t="s">
         <v>968</v>
       </c>
-      <c r="K132" t="s">
+      <c r="L132" t="s">
         <v>969</v>
       </c>
-      <c r="L132" t="s">
+      <c r="M132" t="s">
         <v>970</v>
       </c>
-      <c r="M132" t="s">
+      <c r="N132" t="s">
         <v>971</v>
-      </c>
-      <c r="N132" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>972</v>
+      </c>
+      <c r="B133" t="s">
         <v>973</v>
       </c>
-      <c r="B133" t="s">
-        <v>974</v>
-      </c>
       <c r="D133" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F133">
         <v>43.63279086</v>
@@ -7931,27 +7922,27 @@
         <v>-79.421927499999995</v>
       </c>
       <c r="H133" t="s">
+        <v>974</v>
+      </c>
+      <c r="J133" t="s">
         <v>975</v>
       </c>
-      <c r="J133" t="s">
+      <c r="L133" t="s">
         <v>976</v>
       </c>
-      <c r="L133" t="s">
+      <c r="M133" t="s">
         <v>977</v>
-      </c>
-      <c r="M133" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>978</v>
+      </c>
+      <c r="B134" t="s">
         <v>979</v>
       </c>
-      <c r="B134" t="s">
+      <c r="D134" t="s">
         <v>980</v>
-      </c>
-      <c r="D134" t="s">
-        <v>981</v>
       </c>
       <c r="F134">
         <v>43.702379350000001</v>
@@ -7960,21 +7951,21 @@
         <v>-79.353701180000002</v>
       </c>
       <c r="J134" t="s">
+        <v>981</v>
+      </c>
+      <c r="K134" t="s">
         <v>982</v>
-      </c>
-      <c r="K134" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>983</v>
+      </c>
+      <c r="B135" t="s">
         <v>984</v>
       </c>
-      <c r="B135" t="s">
+      <c r="D135" t="s">
         <v>985</v>
-      </c>
-      <c r="D135" t="s">
-        <v>986</v>
       </c>
       <c r="F135">
         <v>43.637936060000001</v>
@@ -7983,19 +7974,19 @@
         <v>-79.421824470000004</v>
       </c>
       <c r="H135" t="s">
+        <v>986</v>
+      </c>
+      <c r="I135" t="s">
         <v>987</v>
       </c>
-      <c r="I135" t="s">
+      <c r="J135" t="s">
         <v>988</v>
       </c>
-      <c r="J135" t="s">
+      <c r="K135" t="s">
         <v>989</v>
       </c>
-      <c r="K135" t="s">
+      <c r="L135" t="s">
         <v>990</v>
-      </c>
-      <c r="L135" t="s">
-        <v>991</v>
       </c>
     </row>
   </sheetData>
